--- a/GMLASummary/For Jessica/data.xlsx
+++ b/GMLASummary/For Jessica/data.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N570"/>
+  <dimension ref="A1:N573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>11.86</v>
+        <v>15.25</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2829,14 +2829,14 @@
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>44761</v>
+        <v>44768</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" s="2" t="n">
-        <v>44761</v>
+        <v>44768</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>44771</v>
+        <v>44778</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>41.67</v>
+        <v>83.33</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8285,13 +8285,17 @@
           <t>GMLA1</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="F175" t="n">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Incomplete</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="H175" s="2" t="n">
@@ -8304,9 +8308,17 @@
       <c r="K175" s="2" t="n">
         <v>44764</v>
       </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -11399,7 +11411,7 @@
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -13184,13 +13196,13 @@
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" s="2" t="n">
-        <v>44775</v>
+        <v>44809</v>
       </c>
       <c r="J282" s="2" t="n">
-        <v>44775</v>
+        <v>44809</v>
       </c>
       <c r="K282" s="2" t="n">
-        <v>44785</v>
+        <v>44819</v>
       </c>
       <c r="L282" t="inlineStr"/>
       <c r="M282" t="inlineStr"/>
@@ -14016,15 +14028,17 @@
           <t>Incomplete</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr"/>
+      <c r="H300" s="2" t="n">
+        <v>44792</v>
+      </c>
       <c r="I300" s="2" t="n">
         <v>44764</v>
       </c>
       <c r="J300" s="2" t="n">
-        <v>44764</v>
+        <v>44792</v>
       </c>
       <c r="K300" s="2" t="n">
-        <v>44776</v>
+        <v>44804</v>
       </c>
       <c r="L300" t="inlineStr"/>
       <c r="M300" t="inlineStr"/>
@@ -16006,15 +16020,17 @@
           <t>Incomplete</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr"/>
+      <c r="H346" s="2" t="n">
+        <v>44785</v>
+      </c>
       <c r="I346" s="2" t="n">
         <v>44777</v>
       </c>
       <c r="J346" s="2" t="n">
-        <v>44777</v>
+        <v>44785</v>
       </c>
       <c r="K346" s="2" t="n">
-        <v>44789</v>
+        <v>44797</v>
       </c>
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
@@ -16133,16 +16149,16 @@
         </is>
       </c>
       <c r="H349" s="2" t="n">
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="I349" s="2" t="n">
         <v>44777</v>
       </c>
       <c r="J349" s="2" t="n">
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="K349" s="2" t="n">
-        <v>44790</v>
+        <v>44797</v>
       </c>
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="inlineStr"/>
@@ -17470,15 +17486,17 @@
           <t>Incomplete</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr"/>
+      <c r="H383" s="2" t="n">
+        <v>44774</v>
+      </c>
       <c r="I383" s="2" t="n">
         <v>44743</v>
       </c>
       <c r="J383" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="K383" s="2" t="n">
-        <v>44755</v>
+        <v>44784</v>
       </c>
       <c r="L383" t="inlineStr"/>
       <c r="M383" t="inlineStr"/>
@@ -18523,14 +18541,14 @@
         </is>
       </c>
       <c r="H407" s="2" t="n">
-        <v>44753</v>
+        <v>44774</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" s="2" t="n">
-        <v>44753</v>
+        <v>44774</v>
       </c>
       <c r="K407" s="2" t="n">
-        <v>44763</v>
+        <v>44784</v>
       </c>
       <c r="L407" t="inlineStr"/>
       <c r="M407" t="inlineStr"/>
@@ -20949,13 +20967,17 @@
           <t>GMLA1</t>
         </is>
       </c>
-      <c r="E459" t="inlineStr"/>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="F459" t="n">
-        <v>50</v>
+        <v>91.67</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>Incomplete</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="H459" s="2" t="n">
@@ -20970,9 +20992,17 @@
       <c r="K459" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="L459" t="inlineStr"/>
-      <c r="M459" t="inlineStr"/>
-      <c r="N459" t="inlineStr"/>
+      <c r="L459" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -21114,7 +21144,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>1106</v>
+        <v>1023</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -21123,7 +21153,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Venu Sq 2 Plus</t>
+          <t>Venu Sq 2(IMP)</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -21145,19 +21175,17 @@
         </is>
       </c>
       <c r="H463" s="2" t="n">
-        <v>44756</v>
-      </c>
-      <c r="I463" s="2" t="n">
-        <v>44736</v>
-      </c>
+        <v>44483</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" s="2" t="n">
-        <v>44756</v>
+        <v>44483</v>
       </c>
       <c r="K463" s="2" t="n">
-        <v>44768</v>
+        <v>44495</v>
       </c>
       <c r="L463" s="2" t="n">
-        <v>44757</v>
+        <v>44495</v>
       </c>
       <c r="M463" t="inlineStr">
         <is>
@@ -21170,7 +21198,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>1106</v>
+        <v>1023</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -21179,7 +21207,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Venu Sq 2 Plus</t>
+          <t>Venu Sq 2(IMP)</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -21187,32 +21215,46 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>88.64</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H464" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H464" s="2" t="n">
+        <v>44650</v>
+      </c>
       <c r="I464" s="2" t="n">
-        <v>44924</v>
+        <v>44651</v>
       </c>
       <c r="J464" s="2" t="n">
-        <v>44924</v>
+        <v>44650</v>
       </c>
       <c r="K464" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="L464" t="inlineStr"/>
-      <c r="M464" t="inlineStr"/>
-      <c r="N464" t="inlineStr"/>
+        <v>44662</v>
+      </c>
+      <c r="L464" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>1106</v>
+        <v>1023</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -21221,7 +21263,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Venu Sq 2 Plus</t>
+          <t>Venu Sq 2(IMP)</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -21229,32 +21271,46 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F465" t="n">
-        <v>0</v>
+        <v>89.36</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H465" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H465" s="2" t="n">
+        <v>44740</v>
+      </c>
       <c r="I465" s="2" t="n">
-        <v>44995</v>
+        <v>44712</v>
       </c>
       <c r="J465" s="2" t="n">
-        <v>44995</v>
+        <v>44740</v>
       </c>
       <c r="K465" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="L465" t="inlineStr"/>
-      <c r="M465" t="inlineStr"/>
-      <c r="N465" t="inlineStr"/>
+        <v>44750</v>
+      </c>
+      <c r="L465" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>1023</v>
+        <v>1106</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -21263,7 +21319,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Venu Sq 2(IMP)</t>
+          <t>Venu Sq 3</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -21285,17 +21341,19 @@
         </is>
       </c>
       <c r="H466" s="2" t="n">
-        <v>44483</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>44756</v>
+      </c>
+      <c r="I466" s="2" t="n">
+        <v>44736</v>
+      </c>
       <c r="J466" s="2" t="n">
-        <v>44483</v>
+        <v>44756</v>
       </c>
       <c r="K466" s="2" t="n">
-        <v>44495</v>
+        <v>44768</v>
       </c>
       <c r="L466" s="2" t="n">
-        <v>44495</v>
+        <v>44757</v>
       </c>
       <c r="M466" t="inlineStr">
         <is>
@@ -21308,7 +21366,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>1023</v>
+        <v>1106</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -21317,7 +21375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Venu Sq 2(IMP)</t>
+          <t>Venu Sq 3</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -21325,46 +21383,32 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+      <c r="E467" t="inlineStr"/>
       <c r="F467" t="n">
-        <v>88.64</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H467" s="2" t="n">
-        <v>44650</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr"/>
       <c r="I467" s="2" t="n">
-        <v>44651</v>
+        <v>44924</v>
       </c>
       <c r="J467" s="2" t="n">
-        <v>44650</v>
+        <v>44924</v>
       </c>
       <c r="K467" s="2" t="n">
-        <v>44662</v>
-      </c>
-      <c r="L467" s="2" t="n">
-        <v>44659</v>
-      </c>
-      <c r="M467" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N467" t="n">
-        <v>0</v>
-      </c>
+        <v>44936</v>
+      </c>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
+      <c r="N467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>1023</v>
+        <v>1106</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -21373,7 +21417,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Venu Sq 2(IMP)</t>
+          <t>Venu Sq 3</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -21381,42 +21425,28 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
       <c r="F468" t="n">
-        <v>89.36</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H468" s="2" t="n">
-        <v>44740</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr"/>
       <c r="I468" s="2" t="n">
-        <v>44712</v>
+        <v>44995</v>
       </c>
       <c r="J468" s="2" t="n">
-        <v>44740</v>
+        <v>44995</v>
       </c>
       <c r="K468" s="2" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L468" s="2" t="n">
-        <v>44748</v>
-      </c>
-      <c r="M468" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N468" t="n">
-        <v>0</v>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
+      <c r="N468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -21831,13 +21861,17 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>93.17999999999999</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>Incomplete</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="H477" s="2" t="n">
@@ -21852,9 +21886,17 @@
       <c r="K477" s="2" t="n">
         <v>44767</v>
       </c>
-      <c r="L477" t="inlineStr"/>
-      <c r="M477" t="inlineStr"/>
-      <c r="N477" t="inlineStr"/>
+      <c r="L477" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -23344,7 +23386,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>1026</v>
+        <v>1132</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -23353,54 +23395,34 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>dezl watch</t>
+          <t>dezl headset (2nd Gen)</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>GMLA2</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
+          <t>GMLA1</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr"/>
       <c r="F510" t="n">
-        <v>88.64</v>
+        <v>0</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H510" s="2" t="n">
-        <v>44320</v>
-      </c>
-      <c r="I510" s="2" t="n">
-        <v>44365</v>
-      </c>
-      <c r="J510" s="2" t="n">
-        <v>44320</v>
-      </c>
-      <c r="K510" s="2" t="n">
-        <v>44330</v>
-      </c>
-      <c r="L510" s="2" t="n">
-        <v>44330</v>
-      </c>
-      <c r="M510" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N510" t="n">
-        <v>0</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
+      <c r="M510" t="inlineStr"/>
+      <c r="N510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>1026</v>
+        <v>1132</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -23409,54 +23431,34 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>dezl watch</t>
+          <t>dezl headset (2nd Gen)</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>GMLA3</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr"/>
       <c r="F511" t="n">
-        <v>85.11</v>
+        <v>0</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H511" s="2" t="n">
-        <v>44477</v>
-      </c>
-      <c r="I511" s="2" t="n">
-        <v>44498</v>
-      </c>
-      <c r="J511" s="2" t="n">
-        <v>44477</v>
-      </c>
-      <c r="K511" s="2" t="n">
-        <v>44489</v>
-      </c>
-      <c r="L511" s="2" t="n">
-        <v>44489</v>
-      </c>
-      <c r="M511" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N511" t="n">
-        <v>0</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>1033</v>
+        <v>1132</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -23465,52 +23467,34 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
+          <t>dezl headset (2nd Gen)</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>GMLA1</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="n">
-        <v>91.67</v>
+        <v>0</v>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H512" s="2" t="n">
-        <v>44477</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" s="2" t="n">
-        <v>44477</v>
-      </c>
-      <c r="K512" s="2" t="n">
-        <v>44489</v>
-      </c>
-      <c r="L512" s="2" t="n">
-        <v>44477</v>
-      </c>
-      <c r="M512" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N512" t="n">
-        <v>0</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
+      <c r="M512" t="inlineStr"/>
+      <c r="N512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -23519,7 +23503,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
+          <t>dezl watch</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -23529,11 +23513,11 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="F513" t="n">
-        <v>86.36</v>
+        <v>88.64</v>
       </c>
       <c r="G513" t="inlineStr">
         <is>
@@ -23541,17 +23525,19 @@
         </is>
       </c>
       <c r="H513" s="2" t="n">
-        <v>44578</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>44320</v>
+      </c>
+      <c r="I513" s="2" t="n">
+        <v>44365</v>
+      </c>
       <c r="J513" s="2" t="n">
-        <v>44578</v>
+        <v>44320</v>
       </c>
       <c r="K513" s="2" t="n">
-        <v>44588</v>
+        <v>44330</v>
       </c>
       <c r="L513" s="2" t="n">
-        <v>44588</v>
+        <v>44330</v>
       </c>
       <c r="M513" t="inlineStr">
         <is>
@@ -23564,7 +23550,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -23573,7 +23559,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
+          <t>dezl watch</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -23583,11 +23569,11 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="F514" t="n">
-        <v>76.59999999999999</v>
+        <v>85.11</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
@@ -23595,19 +23581,19 @@
         </is>
       </c>
       <c r="H514" s="2" t="n">
-        <v>44693</v>
+        <v>44477</v>
       </c>
       <c r="I514" s="2" t="n">
-        <v>44687</v>
+        <v>44498</v>
       </c>
       <c r="J514" s="2" t="n">
-        <v>44693</v>
+        <v>44477</v>
       </c>
       <c r="K514" s="2" t="n">
-        <v>44705</v>
+        <v>44489</v>
       </c>
       <c r="L514" s="2" t="n">
-        <v>44705</v>
+        <v>44489</v>
       </c>
       <c r="M514" t="inlineStr">
         <is>
@@ -23620,16 +23606,16 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
+          <t>dezlCam OTR710 &amp; RV 795</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -23651,19 +23637,17 @@
         </is>
       </c>
       <c r="H515" s="2" t="n">
-        <v>44662</v>
-      </c>
-      <c r="I515" s="2" t="n">
-        <v>44530</v>
-      </c>
+        <v>44477</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" s="2" t="n">
-        <v>44662</v>
+        <v>44477</v>
       </c>
       <c r="K515" s="2" t="n">
-        <v>44672</v>
+        <v>44489</v>
       </c>
       <c r="L515" s="2" t="n">
-        <v>44550</v>
+        <v>44477</v>
       </c>
       <c r="M515" t="inlineStr">
         <is>
@@ -23676,16 +23660,16 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
+          <t>dezlCam OTR710 &amp; RV 795</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -23693,43 +23677,53 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F516" t="n">
-        <v>0</v>
+        <v>86.36</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>Incomplete</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="H516" s="2" t="n">
-        <v>44771</v>
-      </c>
-      <c r="I516" s="2" t="n">
-        <v>44747</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" s="2" t="n">
-        <v>44771</v>
+        <v>44578</v>
       </c>
       <c r="K516" s="2" t="n">
-        <v>44783</v>
-      </c>
-      <c r="L516" t="inlineStr"/>
-      <c r="M516" t="inlineStr"/>
-      <c r="N516" t="inlineStr"/>
+        <v>44588</v>
+      </c>
+      <c r="L516" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Outdoor</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
+          <t>dezlCam OTR710 &amp; RV 795</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -23737,32 +23731,46 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F517" t="n">
-        <v>0</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H517" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H517" s="2" t="n">
+        <v>44693</v>
+      </c>
       <c r="I517" s="2" t="n">
-        <v>44824</v>
+        <v>44687</v>
       </c>
       <c r="J517" s="2" t="n">
-        <v>44824</v>
+        <v>44693</v>
       </c>
       <c r="K517" s="2" t="n">
-        <v>44834</v>
-      </c>
-      <c r="L517" t="inlineStr"/>
-      <c r="M517" t="inlineStr"/>
-      <c r="N517" t="inlineStr"/>
+        <v>44705</v>
+      </c>
+      <c r="L517" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -23771,7 +23779,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>eTrex SE</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -23779,32 +23787,46 @@
           <t>GMLA1</t>
         </is>
       </c>
-      <c r="E518" t="inlineStr"/>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="F518" t="n">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H518" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H518" s="2" t="n">
+        <v>44662</v>
+      </c>
       <c r="I518" s="2" t="n">
-        <v>44802</v>
+        <v>44530</v>
       </c>
       <c r="J518" s="2" t="n">
-        <v>44802</v>
+        <v>44662</v>
       </c>
       <c r="K518" s="2" t="n">
-        <v>44812</v>
-      </c>
-      <c r="L518" t="inlineStr"/>
-      <c r="M518" t="inlineStr"/>
-      <c r="N518" t="inlineStr"/>
+        <v>44672</v>
+      </c>
+      <c r="L518" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -23813,7 +23835,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>eTrex SE</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -23830,15 +23852,17 @@
           <t>Incomplete</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr"/>
+      <c r="H519" s="2" t="n">
+        <v>44771</v>
+      </c>
       <c r="I519" s="2" t="n">
-        <v>45047</v>
+        <v>44747</v>
       </c>
       <c r="J519" s="2" t="n">
-        <v>45047</v>
+        <v>44771</v>
       </c>
       <c r="K519" s="2" t="n">
-        <v>45057</v>
+        <v>44783</v>
       </c>
       <c r="L519" t="inlineStr"/>
       <c r="M519" t="inlineStr"/>
@@ -23846,7 +23870,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -23855,7 +23879,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>eTrex SE</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -23874,13 +23898,13 @@
       </c>
       <c r="H520" t="inlineStr"/>
       <c r="I520" s="2" t="n">
-        <v>45114</v>
+        <v>44824</v>
       </c>
       <c r="J520" s="2" t="n">
-        <v>45114</v>
+        <v>44824</v>
       </c>
       <c r="K520" s="2" t="n">
-        <v>45126</v>
+        <v>44834</v>
       </c>
       <c r="L520" t="inlineStr"/>
       <c r="M520" t="inlineStr"/>
@@ -23888,7 +23912,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>882</v>
+        <v>1065</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -23897,7 +23921,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>fenix 6 Solar (2020)</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -23916,13 +23940,13 @@
       </c>
       <c r="H521" t="inlineStr"/>
       <c r="I521" s="2" t="n">
-        <v>43672</v>
+        <v>44802</v>
       </c>
       <c r="J521" s="2" t="n">
-        <v>43672</v>
+        <v>44802</v>
       </c>
       <c r="K521" s="2" t="n">
-        <v>43684</v>
+        <v>44812</v>
       </c>
       <c r="L521" t="inlineStr"/>
       <c r="M521" t="inlineStr"/>
@@ -23930,7 +23954,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>882</v>
+        <v>1065</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -23939,7 +23963,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>fenix 6 Solar (2020)</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -23957,16 +23981,22 @@
         </is>
       </c>
       <c r="H522" t="inlineStr"/>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="I522" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="J522" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="K522" s="2" t="n">
+        <v>45057</v>
+      </c>
       <c r="L522" t="inlineStr"/>
       <c r="M522" t="inlineStr"/>
       <c r="N522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>882</v>
+        <v>1065</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -23975,7 +24005,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>fenix 6 Solar (2020)</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -23993,16 +24023,22 @@
         </is>
       </c>
       <c r="H523" t="inlineStr"/>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="I523" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="J523" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="K523" s="2" t="n">
+        <v>45126</v>
+      </c>
       <c r="L523" t="inlineStr"/>
       <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>956</v>
+        <v>882</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -24011,7 +24047,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>fenix 6 Solar 2020 Asia</t>
+          <t>fenix 6 Solar (2020)</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -24029,16 +24065,22 @@
         </is>
       </c>
       <c r="H524" t="inlineStr"/>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="I524" s="2" t="n">
+        <v>43672</v>
+      </c>
+      <c r="J524" s="2" t="n">
+        <v>43672</v>
+      </c>
+      <c r="K524" s="2" t="n">
+        <v>43684</v>
+      </c>
       <c r="L524" t="inlineStr"/>
       <c r="M524" t="inlineStr"/>
       <c r="N524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>956</v>
+        <v>882</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -24047,7 +24089,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>fenix 6 Solar 2020 Asia</t>
+          <t>fenix 6 Solar (2020)</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -24074,7 +24116,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>956</v>
+        <v>882</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -24083,7 +24125,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>fenix 6 Solar 2020 Asia</t>
+          <t>fenix 6 Solar (2020)</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -24110,7 +24152,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>881</v>
+        <v>956</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -24119,54 +24161,34 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>fenix 7</t>
+          <t>fenix 6 Solar 2020 Asia</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>GMLA2</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+          <t>GMLA1</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr"/>
       <c r="F527" t="n">
-        <v>77.78</v>
+        <v>0</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H527" s="2" t="n">
-        <v>44194</v>
-      </c>
-      <c r="I527" s="2" t="n">
-        <v>44180</v>
-      </c>
-      <c r="J527" s="2" t="n">
-        <v>44194</v>
-      </c>
-      <c r="K527" s="2" t="n">
-        <v>44204</v>
-      </c>
-      <c r="L527" s="2" t="n">
-        <v>44207</v>
-      </c>
-      <c r="M527" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N527" t="n">
-        <v>1</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr"/>
+      <c r="N527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>881</v>
+        <v>956</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -24175,54 +24197,34 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>fenix 7</t>
+          <t>fenix 6 Solar 2020 Asia</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>GMLA3</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr"/>
       <c r="F528" t="n">
-        <v>70.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H528" s="2" t="n">
-        <v>44309</v>
-      </c>
-      <c r="I528" s="2" t="n">
-        <v>44432</v>
-      </c>
-      <c r="J528" s="2" t="n">
-        <v>44309</v>
-      </c>
-      <c r="K528" s="2" t="n">
-        <v>44321</v>
-      </c>
-      <c r="L528" s="2" t="n">
-        <v>44321</v>
-      </c>
-      <c r="M528" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N528" t="n">
-        <v>0</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr"/>
+      <c r="N528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>1075</v>
+        <v>956</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -24231,54 +24233,34 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>fenix 6 Solar 2020 Asia</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>GMLA1</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr"/>
       <c r="F529" t="n">
-        <v>91.67</v>
+        <v>0</v>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H529" s="2" t="n">
-        <v>44748</v>
-      </c>
-      <c r="I529" s="2" t="n">
-        <v>44551</v>
-      </c>
-      <c r="J529" s="2" t="n">
-        <v>44748</v>
-      </c>
-      <c r="K529" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="L529" s="2" t="n">
-        <v>44755</v>
-      </c>
-      <c r="M529" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N529" t="n">
-        <v>0</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
+      <c r="N529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>1075</v>
+        <v>881</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -24287,7 +24269,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>fenix 7</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -24295,32 +24277,46 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E530" t="inlineStr"/>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F530" t="n">
-        <v>0</v>
+        <v>77.78</v>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H530" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H530" s="2" t="n">
+        <v>44194</v>
+      </c>
       <c r="I530" s="2" t="n">
-        <v>44827</v>
+        <v>44180</v>
       </c>
       <c r="J530" s="2" t="n">
-        <v>44827</v>
+        <v>44194</v>
       </c>
       <c r="K530" s="2" t="n">
-        <v>44839</v>
-      </c>
-      <c r="L530" t="inlineStr"/>
-      <c r="M530" t="inlineStr"/>
-      <c r="N530" t="inlineStr"/>
+        <v>44204</v>
+      </c>
+      <c r="L530" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N530" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>1075</v>
+        <v>881</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -24329,7 +24325,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>fenix 7</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -24337,32 +24333,46 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E531" t="inlineStr"/>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F531" t="n">
-        <v>0</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H531" s="2" t="n">
+        <v>44309</v>
+      </c>
       <c r="I531" s="2" t="n">
-        <v>44924</v>
+        <v>44432</v>
       </c>
       <c r="J531" s="2" t="n">
-        <v>44924</v>
+        <v>44309</v>
       </c>
       <c r="K531" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="L531" t="inlineStr"/>
-      <c r="M531" t="inlineStr"/>
-      <c r="N531" t="inlineStr"/>
+        <v>44321</v>
+      </c>
+      <c r="L531" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>959</v>
+        <v>1075</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -24371,21 +24381,21 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>fenix 7S</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA1</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F532" t="n">
-        <v>75.56</v>
+        <v>91.67</v>
       </c>
       <c r="G532" t="inlineStr">
         <is>
@@ -24393,17 +24403,19 @@
         </is>
       </c>
       <c r="H532" s="2" t="n">
-        <v>44188</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>44748</v>
+      </c>
+      <c r="I532" s="2" t="n">
+        <v>44551</v>
+      </c>
       <c r="J532" s="2" t="n">
-        <v>44188</v>
+        <v>44748</v>
       </c>
       <c r="K532" s="2" t="n">
-        <v>44200</v>
+        <v>44760</v>
       </c>
       <c r="L532" s="2" t="n">
-        <v>44193</v>
+        <v>44755</v>
       </c>
       <c r="M532" t="inlineStr">
         <is>
@@ -24416,7 +24428,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>959</v>
+        <v>1075</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -24425,52 +24437,40 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>fenix 7S</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>GMLA3</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr"/>
       <c r="F533" t="n">
-        <v>76.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H533" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" s="2" t="n">
+        <v>44827</v>
+      </c>
       <c r="J533" s="2" t="n">
-        <v>44287</v>
+        <v>44827</v>
       </c>
       <c r="K533" s="2" t="n">
-        <v>44299</v>
-      </c>
-      <c r="L533" s="2" t="n">
-        <v>44299</v>
-      </c>
-      <c r="M533" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N533" t="n">
-        <v>0</v>
-      </c>
+        <v>44839</v>
+      </c>
+      <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr"/>
+      <c r="N533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -24479,12 +24479,12 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>GMLA1</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -24496,17 +24496,15 @@
           <t>Incomplete</t>
         </is>
       </c>
-      <c r="H534" s="2" t="n">
-        <v>44754</v>
-      </c>
+      <c r="H534" t="inlineStr"/>
       <c r="I534" s="2" t="n">
-        <v>44721</v>
+        <v>44924</v>
       </c>
       <c r="J534" s="2" t="n">
-        <v>44754</v>
+        <v>44924</v>
       </c>
       <c r="K534" s="2" t="n">
-        <v>44764</v>
+        <v>44936</v>
       </c>
       <c r="L534" t="inlineStr"/>
       <c r="M534" t="inlineStr"/>
@@ -24514,7 +24512,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>1076</v>
+        <v>959</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -24523,7 +24521,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>fenix 7S</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -24531,32 +24529,44 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E535" t="inlineStr"/>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
       <c r="F535" t="n">
-        <v>0</v>
+        <v>75.56</v>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H535" t="inlineStr"/>
-      <c r="I535" s="2" t="n">
-        <v>44830</v>
-      </c>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H535" s="2" t="n">
+        <v>44188</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" s="2" t="n">
-        <v>44830</v>
+        <v>44188</v>
       </c>
       <c r="K535" s="2" t="n">
-        <v>44840</v>
-      </c>
-      <c r="L535" t="inlineStr"/>
-      <c r="M535" t="inlineStr"/>
-      <c r="N535" t="inlineStr"/>
+        <v>44200</v>
+      </c>
+      <c r="L535" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>1076</v>
+        <v>959</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -24565,7 +24575,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>fenix 7S</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -24573,32 +24583,44 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E536" t="inlineStr"/>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F536" t="n">
-        <v>0</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H536" t="inlineStr"/>
-      <c r="I536" s="2" t="n">
-        <v>44924</v>
-      </c>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H536" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" s="2" t="n">
-        <v>44924</v>
+        <v>44287</v>
       </c>
       <c r="K536" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="L536" t="inlineStr"/>
-      <c r="M536" t="inlineStr"/>
-      <c r="N536" t="inlineStr"/>
+        <v>44299</v>
+      </c>
+      <c r="L536" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>960</v>
+        <v>1076</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -24607,21 +24629,21 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>fenix 7X</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>GMLA2</t>
+          <t>GMLA1</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F537" t="n">
-        <v>75.56</v>
+        <v>91.67</v>
       </c>
       <c r="G537" t="inlineStr">
         <is>
@@ -24629,23 +24651,23 @@
         </is>
       </c>
       <c r="H537" s="2" t="n">
-        <v>44195</v>
+        <v>44755</v>
       </c>
       <c r="I537" s="2" t="n">
-        <v>44221</v>
+        <v>44721</v>
       </c>
       <c r="J537" s="2" t="n">
-        <v>44195</v>
+        <v>44755</v>
       </c>
       <c r="K537" s="2" t="n">
-        <v>44207</v>
+        <v>44767</v>
       </c>
       <c r="L537" s="2" t="n">
-        <v>44211</v>
+        <v>44764</v>
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="N537" t="n">
@@ -24654,7 +24676,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>960</v>
+        <v>1076</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -24663,54 +24685,42 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>fenix 7X</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>GMLA3</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr"/>
       <c r="F538" t="n">
-        <v>87.22999999999999</v>
+        <v>0</v>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Incomplete</t>
         </is>
       </c>
       <c r="H538" s="2" t="n">
-        <v>44326</v>
+        <v>44837</v>
       </c>
       <c r="I538" s="2" t="n">
-        <v>44413</v>
+        <v>44830</v>
       </c>
       <c r="J538" s="2" t="n">
-        <v>44326</v>
+        <v>44837</v>
       </c>
       <c r="K538" s="2" t="n">
-        <v>44336</v>
-      </c>
-      <c r="L538" s="2" t="n">
-        <v>44340</v>
-      </c>
-      <c r="M538" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N538" t="n">
-        <v>1</v>
-      </c>
+        <v>44847</v>
+      </c>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr"/>
+      <c r="N538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -24719,12 +24729,12 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>GMLA1</t>
+          <t>GMLA3</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -24736,15 +24746,17 @@
           <t>Incomplete</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr"/>
+      <c r="H539" s="2" t="n">
+        <v>44925</v>
+      </c>
       <c r="I539" s="2" t="n">
-        <v>44551</v>
+        <v>44924</v>
       </c>
       <c r="J539" s="2" t="n">
-        <v>44551</v>
+        <v>44925</v>
       </c>
       <c r="K539" s="2" t="n">
-        <v>44561</v>
+        <v>44937</v>
       </c>
       <c r="L539" t="inlineStr"/>
       <c r="M539" t="inlineStr"/>
@@ -24752,7 +24764,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>1077</v>
+        <v>960</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -24761,7 +24773,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>fenix 7X</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -24769,32 +24781,46 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E540" t="inlineStr"/>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F540" t="n">
-        <v>0</v>
+        <v>75.56</v>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H540" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H540" s="2" t="n">
+        <v>44195</v>
+      </c>
       <c r="I540" s="2" t="n">
-        <v>44844</v>
+        <v>44221</v>
       </c>
       <c r="J540" s="2" t="n">
-        <v>44844</v>
+        <v>44195</v>
       </c>
       <c r="K540" s="2" t="n">
-        <v>44854</v>
-      </c>
-      <c r="L540" t="inlineStr"/>
-      <c r="M540" t="inlineStr"/>
-      <c r="N540" t="inlineStr"/>
+        <v>44207</v>
+      </c>
+      <c r="L540" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>1077</v>
+        <v>960</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -24803,7 +24829,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>fenix 7X</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -24811,32 +24837,46 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E541" t="inlineStr"/>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F541" t="n">
-        <v>0</v>
+        <v>87.22999999999999</v>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H541" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H541" s="2" t="n">
+        <v>44326</v>
+      </c>
       <c r="I541" s="2" t="n">
-        <v>44942</v>
+        <v>44413</v>
       </c>
       <c r="J541" s="2" t="n">
-        <v>44942</v>
+        <v>44326</v>
       </c>
       <c r="K541" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="L541" t="inlineStr"/>
-      <c r="M541" t="inlineStr"/>
-      <c r="N541" t="inlineStr"/>
+        <v>44336</v>
+      </c>
+      <c r="L541" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N541" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>1027</v>
+        <v>1077</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -24845,7 +24885,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -24859,7 +24899,7 @@
         </is>
       </c>
       <c r="F542" t="n">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
       <c r="G542" t="inlineStr">
         <is>
@@ -24867,19 +24907,19 @@
         </is>
       </c>
       <c r="H542" s="2" t="n">
-        <v>44431</v>
+        <v>44755</v>
       </c>
       <c r="I542" s="2" t="n">
-        <v>44417</v>
+        <v>44551</v>
       </c>
       <c r="J542" s="2" t="n">
-        <v>44431</v>
+        <v>44755</v>
       </c>
       <c r="K542" s="2" t="n">
-        <v>44441</v>
+        <v>44767</v>
       </c>
       <c r="L542" s="2" t="n">
-        <v>44440</v>
+        <v>44760</v>
       </c>
       <c r="M542" t="inlineStr">
         <is>
@@ -24892,7 +24932,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>1027</v>
+        <v>1077</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -24901,7 +24941,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -24909,46 +24949,32 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+      <c r="E543" t="inlineStr"/>
       <c r="F543" t="n">
-        <v>79.55</v>
+        <v>0</v>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H543" s="2" t="n">
-        <v>44613</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr"/>
       <c r="I543" s="2" t="n">
-        <v>44621</v>
+        <v>44844</v>
       </c>
       <c r="J543" s="2" t="n">
-        <v>44613</v>
+        <v>44844</v>
       </c>
       <c r="K543" s="2" t="n">
-        <v>44623</v>
-      </c>
-      <c r="L543" s="2" t="n">
-        <v>44623</v>
-      </c>
-      <c r="M543" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N543" t="n">
-        <v>0</v>
-      </c>
+        <v>44854</v>
+      </c>
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr"/>
+      <c r="N543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>1027</v>
+        <v>1077</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -24957,7 +24983,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -24965,46 +24991,32 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+      <c r="E544" t="inlineStr"/>
       <c r="F544" t="n">
-        <v>85.11</v>
+        <v>0</v>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H544" s="2" t="n">
-        <v>44686</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr"/>
       <c r="I544" s="2" t="n">
-        <v>44718</v>
+        <v>44942</v>
       </c>
       <c r="J544" s="2" t="n">
-        <v>44686</v>
+        <v>44942</v>
       </c>
       <c r="K544" s="2" t="n">
-        <v>44698</v>
-      </c>
-      <c r="L544" s="2" t="n">
-        <v>44697</v>
-      </c>
-      <c r="M544" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N544" t="n">
-        <v>0</v>
-      </c>
+        <v>44952</v>
+      </c>
+      <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr"/>
+      <c r="N544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>922</v>
+        <v>1027</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -25013,7 +25025,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>inReach Mini 2</t>
+          <t>inReach Messenger</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -25027,7 +25039,7 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="G545" t="inlineStr">
         <is>
@@ -25035,17 +25047,19 @@
         </is>
       </c>
       <c r="H545" s="2" t="n">
-        <v>44263</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>44431</v>
+      </c>
+      <c r="I545" s="2" t="n">
+        <v>44417</v>
+      </c>
       <c r="J545" s="2" t="n">
-        <v>44263</v>
+        <v>44431</v>
       </c>
       <c r="K545" s="2" t="n">
-        <v>44273</v>
+        <v>44441</v>
       </c>
       <c r="L545" s="2" t="n">
-        <v>44272</v>
+        <v>44440</v>
       </c>
       <c r="M545" t="inlineStr">
         <is>
@@ -25058,7 +25072,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>922</v>
+        <v>1027</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -25067,7 +25081,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>inReach Mini 2</t>
+          <t>inReach Messenger</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -25081,7 +25095,7 @@
         </is>
       </c>
       <c r="F546" t="n">
-        <v>81.82000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="G546" t="inlineStr">
         <is>
@@ -25089,17 +25103,19 @@
         </is>
       </c>
       <c r="H546" s="2" t="n">
-        <v>44362</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>44613</v>
+      </c>
+      <c r="I546" s="2" t="n">
+        <v>44621</v>
+      </c>
       <c r="J546" s="2" t="n">
-        <v>44362</v>
+        <v>44613</v>
       </c>
       <c r="K546" s="2" t="n">
-        <v>44372</v>
+        <v>44623</v>
       </c>
       <c r="L546" s="2" t="n">
-        <v>44372</v>
+        <v>44623</v>
       </c>
       <c r="M546" t="inlineStr">
         <is>
@@ -25112,7 +25128,7 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>922</v>
+        <v>1027</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -25121,7 +25137,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>inReach Mini 2</t>
+          <t>inReach Messenger</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -25135,7 +25151,7 @@
         </is>
       </c>
       <c r="F547" t="n">
-        <v>82.98</v>
+        <v>85.11</v>
       </c>
       <c r="G547" t="inlineStr">
         <is>
@@ -25143,17 +25159,19 @@
         </is>
       </c>
       <c r="H547" s="2" t="n">
-        <v>44470</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>44686</v>
+      </c>
+      <c r="I547" s="2" t="n">
+        <v>44718</v>
+      </c>
       <c r="J547" s="2" t="n">
-        <v>44470</v>
+        <v>44686</v>
       </c>
       <c r="K547" s="2" t="n">
-        <v>44482</v>
+        <v>44698</v>
       </c>
       <c r="L547" s="2" t="n">
-        <v>44481</v>
+        <v>44697</v>
       </c>
       <c r="M547" t="inlineStr">
         <is>
@@ -25166,16 +25184,16 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>1085</v>
+        <v>922</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>quatix 7</t>
+          <t>inReach Mini 2</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -25183,35 +25201,53 @@
           <t>GMLA1</t>
         </is>
       </c>
-      <c r="E548" t="inlineStr"/>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="F548" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H548" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H548" s="2" t="n">
+        <v>44263</v>
+      </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
-      <c r="M548" t="inlineStr"/>
-      <c r="N548" t="inlineStr"/>
+      <c r="J548" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="K548" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="L548" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>1085</v>
+        <v>922</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>quatix 7</t>
+          <t>inReach Mini 2</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -25219,41 +25255,53 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E549" t="inlineStr"/>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F549" t="n">
-        <v>0</v>
+        <v>81.82000000000001</v>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H549" t="inlineStr"/>
-      <c r="I549" s="2" t="n">
-        <v>44480</v>
-      </c>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H549" s="2" t="n">
+        <v>44362</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" s="2" t="n">
-        <v>44480</v>
+        <v>44362</v>
       </c>
       <c r="K549" s="2" t="n">
-        <v>44490</v>
-      </c>
-      <c r="L549" t="inlineStr"/>
-      <c r="M549" t="inlineStr"/>
-      <c r="N549" t="inlineStr"/>
+        <v>44372</v>
+      </c>
+      <c r="L549" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>1085</v>
+        <v>922</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>quatix 7</t>
+          <t>inReach Mini 2</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -25261,32 +25309,44 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E550" t="inlineStr"/>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F550" t="n">
-        <v>0</v>
+        <v>82.98</v>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H550" t="inlineStr"/>
-      <c r="I550" s="2" t="n">
-        <v>44568</v>
-      </c>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H550" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" s="2" t="n">
-        <v>44568</v>
+        <v>44470</v>
       </c>
       <c r="K550" s="2" t="n">
-        <v>44580</v>
-      </c>
-      <c r="L550" t="inlineStr"/>
-      <c r="M550" t="inlineStr"/>
-      <c r="N550" t="inlineStr"/>
+        <v>44482</v>
+      </c>
+      <c r="L550" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -25295,7 +25355,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>quatix 7 Sapphire</t>
+          <t>quatix 7</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -25322,7 +25382,7 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -25331,7 +25391,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>quatix 7 Sapphire</t>
+          <t>quatix 7</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -25364,7 +25424,7 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -25373,7 +25433,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>quatix 7 Sapphire</t>
+          <t>quatix 7</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -25406,7 +25466,7 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -25415,7 +25475,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>quatix 7x Solar</t>
+          <t>quatix 7 Sapphire</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -25442,7 +25502,7 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -25451,7 +25511,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>quatix 7x Solar</t>
+          <t>quatix 7 Sapphire</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -25469,16 +25529,22 @@
         </is>
       </c>
       <c r="H555" t="inlineStr"/>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="I555" s="2" t="n">
+        <v>44480</v>
+      </c>
+      <c r="J555" s="2" t="n">
+        <v>44480</v>
+      </c>
+      <c r="K555" s="2" t="n">
+        <v>44490</v>
+      </c>
       <c r="L555" t="inlineStr"/>
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -25487,7 +25553,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>quatix 7x Solar</t>
+          <t>quatix 7 Sapphire</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -25505,184 +25571,130 @@
         </is>
       </c>
       <c r="H556" t="inlineStr"/>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="I556" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="J556" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="K556" s="2" t="n">
+        <v>44580</v>
+      </c>
       <c r="L556" t="inlineStr"/>
       <c r="M556" t="inlineStr"/>
       <c r="N556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>979</v>
+        <v>1086</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>vivomove "Lite"</t>
+          <t>quatix 7x Solar</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>GMLA2</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+          <t>GMLA1</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
       <c r="F557" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H557" s="2" t="n">
-        <v>44307</v>
-      </c>
-      <c r="I557" s="2" t="n">
-        <v>44306</v>
-      </c>
-      <c r="J557" s="2" t="n">
-        <v>44307</v>
-      </c>
-      <c r="K557" s="2" t="n">
-        <v>44319</v>
-      </c>
-      <c r="L557" s="2" t="n">
-        <v>44319</v>
-      </c>
-      <c r="M557" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N557" t="n">
-        <v>0</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr"/>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr"/>
+      <c r="N557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>979</v>
+        <v>1086</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>vivomove "Lite"</t>
+          <t>quatix 7x Solar</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>GMLA3</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
       <c r="F558" t="n">
-        <v>70.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H558" s="2" t="n">
-        <v>44452</v>
-      </c>
-      <c r="I558" s="2" t="n">
-        <v>44463</v>
-      </c>
-      <c r="J558" s="2" t="n">
-        <v>44452</v>
-      </c>
-      <c r="K558" s="2" t="n">
-        <v>44462</v>
-      </c>
-      <c r="L558" s="2" t="n">
-        <v>44466</v>
-      </c>
-      <c r="M558" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N558" t="n">
-        <v>1</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
+      <c r="N558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>1030</v>
+        <v>1086</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>quatix 7x Solar</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>GMLA1</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
       <c r="F559" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H559" s="2" t="n">
-        <v>44481</v>
-      </c>
-      <c r="I559" s="2" t="n">
-        <v>44463</v>
-      </c>
-      <c r="J559" s="2" t="n">
-        <v>44481</v>
-      </c>
-      <c r="K559" s="2" t="n">
-        <v>44491</v>
-      </c>
-      <c r="L559" s="2" t="n">
-        <v>44491</v>
-      </c>
-      <c r="M559" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N559" t="n">
-        <v>0</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
+      <c r="N559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>1030</v>
+        <v>979</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -25691,7 +25703,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>vivomove "Lite"</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -25705,7 +25717,7 @@
         </is>
       </c>
       <c r="F560" t="n">
-        <v>86.36</v>
+        <v>60</v>
       </c>
       <c r="G560" t="inlineStr">
         <is>
@@ -25713,19 +25725,19 @@
         </is>
       </c>
       <c r="H560" s="2" t="n">
-        <v>44736</v>
+        <v>44307</v>
       </c>
       <c r="I560" s="2" t="n">
-        <v>44722</v>
+        <v>44306</v>
       </c>
       <c r="J560" s="2" t="n">
-        <v>44736</v>
+        <v>44307</v>
       </c>
       <c r="K560" s="2" t="n">
-        <v>44748</v>
+        <v>44319</v>
       </c>
       <c r="L560" s="2" t="n">
-        <v>44746</v>
+        <v>44319</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
@@ -25738,7 +25750,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>1030</v>
+        <v>979</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -25747,7 +25759,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>vivomove "Lite"</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -25755,32 +25767,46 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E561" t="inlineStr"/>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F561" t="n">
-        <v>0</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H561" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H561" s="2" t="n">
+        <v>44452</v>
+      </c>
       <c r="I561" s="2" t="n">
-        <v>44813</v>
+        <v>44463</v>
       </c>
       <c r="J561" s="2" t="n">
-        <v>44813</v>
+        <v>44452</v>
       </c>
       <c r="K561" s="2" t="n">
-        <v>44825</v>
-      </c>
-      <c r="L561" t="inlineStr"/>
-      <c r="M561" t="inlineStr"/>
-      <c r="N561" t="inlineStr"/>
+        <v>44462</v>
+      </c>
+      <c r="L561" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N561" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -25789,7 +25815,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>vivosmart 5 (Franklin)</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -25803,7 +25829,7 @@
         </is>
       </c>
       <c r="F562" t="n">
-        <v>75</v>
+        <v>83.33</v>
       </c>
       <c r="G562" t="inlineStr">
         <is>
@@ -25811,19 +25837,19 @@
         </is>
       </c>
       <c r="H562" s="2" t="n">
-        <v>44328</v>
+        <v>44481</v>
       </c>
       <c r="I562" s="2" t="n">
-        <v>44225</v>
+        <v>44463</v>
       </c>
       <c r="J562" s="2" t="n">
-        <v>44328</v>
+        <v>44481</v>
       </c>
       <c r="K562" s="2" t="n">
-        <v>44340</v>
+        <v>44491</v>
       </c>
       <c r="L562" s="2" t="n">
-        <v>44333</v>
+        <v>44491</v>
       </c>
       <c r="M562" t="inlineStr">
         <is>
@@ -25836,7 +25862,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -25845,7 +25871,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>vivosmart 5 (Franklin)</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -25859,7 +25885,7 @@
         </is>
       </c>
       <c r="F563" t="n">
-        <v>84.09</v>
+        <v>86.36</v>
       </c>
       <c r="G563" t="inlineStr">
         <is>
@@ -25867,19 +25893,19 @@
         </is>
       </c>
       <c r="H563" s="2" t="n">
-        <v>44477</v>
+        <v>44736</v>
       </c>
       <c r="I563" s="2" t="n">
-        <v>44474</v>
+        <v>44722</v>
       </c>
       <c r="J563" s="2" t="n">
-        <v>44477</v>
+        <v>44736</v>
       </c>
       <c r="K563" s="2" t="n">
-        <v>44489</v>
+        <v>44748</v>
       </c>
       <c r="L563" s="2" t="n">
-        <v>44487</v>
+        <v>44746</v>
       </c>
       <c r="M563" t="inlineStr">
         <is>
@@ -25892,7 +25918,7 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -25901,7 +25927,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>vivosmart 5 (Franklin)</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -25909,55 +25935,41 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="n">
-        <v>76.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H564" s="2" t="n">
-        <v>44545</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr"/>
       <c r="I564" s="2" t="n">
-        <v>44559</v>
+        <v>44813</v>
       </c>
       <c r="J564" s="2" t="n">
-        <v>44545</v>
+        <v>44813</v>
       </c>
       <c r="K564" s="2" t="n">
-        <v>44557</v>
-      </c>
-      <c r="L564" s="2" t="n">
-        <v>44557</v>
-      </c>
-      <c r="M564" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N564" t="n">
-        <v>0</v>
-      </c>
+        <v>44825</v>
+      </c>
+      <c r="L564" t="inlineStr"/>
+      <c r="M564" t="inlineStr"/>
+      <c r="N564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>775</v>
+        <v>1034</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>zumo X</t>
+          <t>vivosmart 5 (Franklin)</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -25965,41 +25977,55 @@
           <t>GMLA1</t>
         </is>
       </c>
-      <c r="E565" t="inlineStr"/>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
       <c r="F565" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H565" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H565" s="2" t="n">
+        <v>44328</v>
+      </c>
       <c r="I565" s="2" t="n">
-        <v>43570</v>
+        <v>44225</v>
       </c>
       <c r="J565" s="2" t="n">
-        <v>43570</v>
+        <v>44328</v>
       </c>
       <c r="K565" s="2" t="n">
-        <v>43580</v>
-      </c>
-      <c r="L565" t="inlineStr"/>
-      <c r="M565" t="inlineStr"/>
-      <c r="N565" t="inlineStr"/>
+        <v>44340</v>
+      </c>
+      <c r="L565" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>775</v>
+        <v>1034</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>zumo X</t>
+          <t>vivosmart 5 (Franklin)</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -26007,35 +26033,55 @@
           <t>GMLA2</t>
         </is>
       </c>
-      <c r="E566" t="inlineStr"/>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F566" t="n">
-        <v>0</v>
+        <v>84.09</v>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H566" t="inlineStr"/>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
-      <c r="M566" t="inlineStr"/>
-      <c r="N566" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H566" s="2" t="n">
+        <v>44477</v>
+      </c>
+      <c r="I566" s="2" t="n">
+        <v>44474</v>
+      </c>
+      <c r="J566" s="2" t="n">
+        <v>44477</v>
+      </c>
+      <c r="K566" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="L566" s="2" t="n">
+        <v>44487</v>
+      </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>775</v>
+        <v>1034</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Automotive</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>zumo X</t>
+          <t>vivosmart 5 (Franklin)</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -26043,26 +26089,46 @@
           <t>GMLA3</t>
         </is>
       </c>
-      <c r="E567" t="inlineStr"/>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="F567" t="n">
-        <v>0</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>Incomplete</t>
-        </is>
-      </c>
-      <c r="H567" t="inlineStr"/>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
-      <c r="M567" t="inlineStr"/>
-      <c r="N567" t="inlineStr"/>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H567" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="I567" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="J567" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="K567" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="L567" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>1101</v>
+        <v>775</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -26071,7 +26137,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
+          <t>zumo X</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -26079,46 +26145,32 @@
           <t>GMLA1</t>
         </is>
       </c>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+      <c r="E568" t="inlineStr"/>
       <c r="F568" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="H568" s="2" t="n">
-        <v>44704</v>
-      </c>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr"/>
       <c r="I568" s="2" t="n">
-        <v>44621</v>
+        <v>43570</v>
       </c>
       <c r="J568" s="2" t="n">
-        <v>44704</v>
+        <v>43570</v>
       </c>
       <c r="K568" s="2" t="n">
-        <v>44714</v>
-      </c>
-      <c r="L568" s="2" t="n">
-        <v>44706</v>
-      </c>
-      <c r="M568" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N568" t="n">
-        <v>0</v>
-      </c>
+        <v>43580</v>
+      </c>
+      <c r="L568" t="inlineStr"/>
+      <c r="M568" t="inlineStr"/>
+      <c r="N568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>1101</v>
+        <v>775</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -26127,7 +26179,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
+          <t>zumo X</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -26145,22 +26197,16 @@
         </is>
       </c>
       <c r="H569" t="inlineStr"/>
-      <c r="I569" s="2" t="n">
-        <v>44827</v>
-      </c>
-      <c r="J569" s="2" t="n">
-        <v>44827</v>
-      </c>
-      <c r="K569" s="2" t="n">
-        <v>44839</v>
-      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr"/>
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>1101</v>
+        <v>775</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -26169,7 +26215,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
+          <t>zumo X</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -26187,18 +26233,152 @@
         </is>
       </c>
       <c r="H570" t="inlineStr"/>
-      <c r="I570" s="2" t="n">
-        <v>44911</v>
-      </c>
-      <c r="J570" s="2" t="n">
-        <v>44911</v>
-      </c>
-      <c r="K570" s="2" t="n">
-        <v>44923</v>
-      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr"/>
       <c r="M570" t="inlineStr"/>
       <c r="N570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>zumo XT2</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>GMLA1</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>100</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="H571" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="I571" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="J571" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="K571" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="L571" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>zumo XT2</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>GMLA2</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="n">
+        <v>0</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr"/>
+      <c r="I572" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="J572" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="K572" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="L572" t="inlineStr"/>
+      <c r="M572" t="inlineStr"/>
+      <c r="N572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>zumo XT2</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>GMLA3</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" t="n">
+        <v>0</v>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr"/>
+      <c r="I573" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="J573" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="K573" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="L573" t="inlineStr"/>
+      <c r="M573" t="inlineStr"/>
+      <c r="N573" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26211,7 +26391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26518,12 +26698,26 @@
         <v>44771</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
         <v>100</v>
       </c>
     </row>
@@ -26538,7 +26732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26971,10 +27165,10 @@
         <v>44771</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -26983,6 +27177,26 @@
         <v>100</v>
       </c>
       <c r="F21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="n">
         <v>100</v>
       </c>
     </row>

--- a/GMLASummary/For Jessica/data.xlsx
+++ b/GMLASummary/For Jessica/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python Projects\GMLASummary\For Jessica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336033F8-96C8-491A-9F6F-F269839B6C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC90990-E45F-4E9E-BB78-A7FD2B3EB5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16140" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -871,7 +871,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,36 +888,6 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     </dxf>
@@ -963,19 +933,49 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <top style="thin">
+        <right style="thin">
           <color auto="1"/>
-        </top>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -992,22 +992,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0778555-F124-4939-9431-5C8AE57F5A66}" name="表格1" displayName="表格1" ref="A1:N573" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0778555-F124-4939-9431-5C8AE57F5A66}" name="表格1" displayName="表格1" ref="A1:N573" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:N573" xr:uid="{A0778555-F124-4939-9431-5C8AE57F5A66}">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
       <filters>
-        <filter val="GMLA2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <dateGroupItem year="2022" month="8" dateTimeGrouping="month"/>
-        <dateGroupItem year="2022" month="9" dateTimeGrouping="month"/>
+        <filter val="Marq (Gen 2)"/>
+        <filter val="MARQ Carbon"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{94085B6C-D596-4345-AAC8-3A2A8A528001}" name="projectSizeId" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{94085B6C-D596-4345-AAC8-3A2A8A528001}" name="projectSizeId" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A23D83A7-DA82-4045-8E5F-F615D8A58EB3}" name="Segment"/>
     <tableColumn id="3" xr3:uid="{85AF8B56-CC7E-4732-B1F7-03F8FA89625F}" name="Project_Name"/>
     <tableColumn id="4" xr3:uid="{BF8C7982-D474-4290-BFD4-790D319D22D9}" name="Phase"/>
@@ -1015,9 +1010,9 @@
     <tableColumn id="6" xr3:uid="{2CEB503E-CED4-4F6F-A5DE-72955E09118D}" name="Score"/>
     <tableColumn id="7" xr3:uid="{411A813A-F97B-46F4-B6B4-9A3B6E2074E4}" name="status"/>
     <tableColumn id="8" xr3:uid="{EC54909C-E123-434D-9D14-3A427B536D9E}" name="actualCloseMeetingDate"/>
-    <tableColumn id="9" xr3:uid="{300622C6-BB9A-44E3-BD7D-BC34C4DD0B5F}" name="estCloseMeetingDate" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{34955B43-6989-4076-BE21-4E388F15F928}" name="mergedCloseMeetingDate" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{CABFD68C-4E15-439F-B817-EE67930DDE59}" name="targetGMLASubmitDate" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{300622C6-BB9A-44E3-BD7D-BC34C4DD0B5F}" name="estCloseMeetingDate" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{34955B43-6989-4076-BE21-4E388F15F928}" name="mergedCloseMeetingDate" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{CABFD68C-4E15-439F-B817-EE67930DDE59}" name="targetGMLASubmitDate" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{1610F362-F81D-499F-963A-1E4983AA2A71}" name="actualGMLASubmitDate"/>
     <tableColumn id="13" xr3:uid="{BEDFE732-F360-4AE0-812E-AAA0F44741C7}" name="on_time"/>
     <tableColumn id="14" xr3:uid="{40B4DFC1-7AED-41F3-AA9C-5EAD11AFE179}" name="delay_but_rejected"/>
@@ -1313,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F574" sqref="F574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>856</v>
       </c>
@@ -5347,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>1131</v>
       </c>
@@ -6944,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>1092</v>
       </c>
@@ -7058,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>1093</v>
       </c>
@@ -7382,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>1069</v>
       </c>
@@ -8426,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>978</v>
       </c>
@@ -8972,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>1107</v>
       </c>
@@ -9086,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>1118</v>
       </c>
@@ -9455,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>1103</v>
       </c>
@@ -9563,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>1078</v>
       </c>
@@ -9987,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>1105</v>
       </c>
@@ -10920,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>1068</v>
       </c>
@@ -12324,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>904</v>
       </c>
@@ -12388,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>904</v>
       </c>
@@ -12574,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>972</v>
       </c>
@@ -12618,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>972</v>
       </c>
@@ -12653,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>972</v>
       </c>
@@ -13462,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>833</v>
       </c>
@@ -14119,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>1081</v>
       </c>
@@ -14230,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <v>1080</v>
       </c>
@@ -14690,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
         <v>964</v>
       </c>
@@ -20549,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4">
         <v>1101</v>
       </c>
@@ -20616,8 +20611,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
